--- a/Instances/05_Normal.xlsx
+++ b/Instances/05_Normal.xlsx
@@ -9,8 +9,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3044,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27063</v>
+        <v>27101</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>3511.72</v>
+        <v>3111.62</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3073,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>28768</v>
+        <v>27737</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>2720.07</v>
+        <v>2623.76</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3102,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1486</v>
+        <v>1433</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>148.75</v>
+        <v>155.01</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3131,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>16741</v>
+        <v>10969</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>1454.71</v>
+        <v>1411.63</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3160,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>804</v>
+        <v>1124</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>129.66</v>
+        <v>171.55</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3189,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8900</v>
+        <v>10509</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>1193.97</v>
+        <v>1351.04</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3218,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>29908</v>
+        <v>22225</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>2860.71</v>
+        <v>3819.45</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3247,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>29715</v>
+        <v>17229</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>3597.46</v>
+        <v>3384.84</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3276,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>30877</v>
+        <v>24972</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>2638.93</v>
+        <v>3426.44</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3305,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>21696</v>
+        <v>16801</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>2644.85</v>
+        <v>3271.18</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3334,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>23715</v>
+        <v>30643</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>3502.79</v>
+        <v>2751.65</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3363,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>24628</v>
+        <v>23174</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>3225.84</v>
+        <v>3097.62</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3392,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1155</v>
+        <v>1350</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>138</v>
+        <v>149.6</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3421,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>12268</v>
+        <v>10168</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>1815.16</v>
+        <v>1734.31</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3450,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>10268</v>
+        <v>12134</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>1790.99</v>
+        <v>1411</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3479,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>30322</v>
+        <v>20894</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>3403.94</v>
+        <v>3367.2</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3508,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1588</v>
+        <v>1271</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
@@ -3537,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>10201</v>
+        <v>11841</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>1453.97</v>
+        <v>1489.14</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3566,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>8536</v>
+        <v>9566</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>1523.14</v>
+        <v>1404.58</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3595,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>610</v>
+        <v>381</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>69.33</v>
+        <v>74.87</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3624,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>945</v>
+        <v>811</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>111.35</v>
+        <v>112.67</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3653,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>6918</v>
+        <v>6713</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>695.08</v>
+        <v>733.9400000000001</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3682,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>8802</v>
+        <v>6388</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>1108.41</v>
+        <v>934.92</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3711,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>853</v>
+        <v>701</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>100.63</v>
+        <v>95.09</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3740,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>696</v>
+        <v>537</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>65.98</v>
+        <v>75.37</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3769,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>4199</v>
+        <v>3417</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>645.45</v>
+        <v>480.03</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3798,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>5382</v>
+        <v>3682</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>838.63</v>
+        <v>632.77</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -3825,6 +3827,1930 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>353</v>
+      </c>
+      <c r="V2" t="n">
+        <v>482</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>353</v>
+      </c>
+      <c r="V3" t="n">
+        <v>482</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>353</v>
+      </c>
+      <c r="V4" t="n">
+        <v>482</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>353</v>
+      </c>
+      <c r="V5" t="n">
+        <v>482</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>353</v>
+      </c>
+      <c r="V6" t="n">
+        <v>482</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>353</v>
+      </c>
+      <c r="V7" t="n">
+        <v>482</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>353</v>
+      </c>
+      <c r="V8" t="n">
+        <v>482</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>353</v>
+      </c>
+      <c r="V9" t="n">
+        <v>482</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>353</v>
+      </c>
+      <c r="V10" t="n">
+        <v>482</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>353</v>
+      </c>
+      <c r="V11" t="n">
+        <v>482</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V2" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V3" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V4" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V5" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V6" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V7" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V8" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V9" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V10" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V11" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3848,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>88403.40000000001</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3856,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>117871.2</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3864,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3006</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3872,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75483</v>
+        <v>60386.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3880,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2887.2</v>
+        <v>5774.400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3888,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34273.8</v>
+        <v>45698.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3896,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58935.6</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3904,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>147339</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3912,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88403.40000000001</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3920,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>58935.6</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3928,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147339</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3944,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3006</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3952,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>33199.2</v>
+        <v>49798.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3968,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29467.8</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3976,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2887.2</v>
+        <v>1443.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3984,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>51472.8</v>
+        <v>25736.4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3992,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22849.2</v>
+        <v>34273.8</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4008,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4338</v>
+        <v>867.6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4016,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4024,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>41733</v>
+        <v>16693.2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4032,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3132</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4040,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2642.4</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4048,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20109.6</v>
+        <v>15082.2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4064,7 +5990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4166,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4255,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4344,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4433,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4522,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4611,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4700,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4789,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4878,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4967,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5056,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5234,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5323,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5501,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5590,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5679,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5768,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5946,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6035,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -6124,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -6213,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -6302,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -6391,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>

--- a/Instances/05_Normal.xlsx
+++ b/Instances/05_Normal.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27101</v>
+        <v>26618</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>3111.62</v>
+        <v>15.11</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>27737</v>
+        <v>18146</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>2623.76</v>
+        <v>14.58</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1433</v>
+        <v>1563</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>155.01</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10969</v>
+        <v>16132</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>1411.63</v>
+        <v>6.51</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1124</v>
+        <v>1434</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>171.55</v>
+        <v>0.52</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10509</v>
+        <v>10163</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>1351.04</v>
+        <v>4.56</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>22225</v>
+        <v>20480</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>3819.45</v>
+        <v>14.71</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17229</v>
+        <v>23565</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>3384.84</v>
+        <v>15.43</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>24972</v>
+        <v>20623</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>3426.44</v>
+        <v>11.61</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>16801</v>
+        <v>23014</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>3271.18</v>
+        <v>11.39</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>30643</v>
+        <v>32262</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>2751.65</v>
+        <v>11.28</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>23174</v>
+        <v>25070</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>3097.62</v>
+        <v>10.85</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1350</v>
+        <v>1541</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>149.6</v>
+        <v>0.53</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>10168</v>
+        <v>17720</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>1734.31</v>
+        <v>8.68</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>12134</v>
+        <v>16048</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>1411</v>
+        <v>6.52</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>20894</v>
+        <v>27878</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>3367.2</v>
+        <v>12.73</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1271</v>
+        <v>1224</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>136.44</v>
+        <v>0.63</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>11841</v>
+        <v>9050</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>1489.14</v>
+        <v>5.71</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>9566</v>
+        <v>8224</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>1404.58</v>
+        <v>4.26</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>381</v>
+        <v>583</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>74.87</v>
+        <v>0.28</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>811</v>
+        <v>930</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>112.67</v>
+        <v>0.45</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>6713</v>
+        <v>5146</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>733.9400000000001</v>
+        <v>2.92</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>6388</v>
+        <v>7262</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>934.92</v>
+        <v>4.19</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>701</v>
+        <v>739</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>95.09</v>
+        <v>0.33</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>537</v>
+        <v>426</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>75.37</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3417</v>
+        <v>3958</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>480.03</v>
+        <v>2.36</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3682</v>
+        <v>6899</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>632.77</v>
+        <v>3.18</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29467.8</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>88403.40000000001</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4509</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60386.4</v>
+        <v>30193.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5774.400000000001</v>
+        <v>4330.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45698.4</v>
+        <v>11424.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29467.8</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88403.40000000001</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147339</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>49798.8</v>
+        <v>82998</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15096.6</v>
+        <v>30193.2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>58935.6</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1443.6</v>
+        <v>2887.2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25736.4</v>
+        <v>64341</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>34273.8</v>
+        <v>11424.6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>635.4</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3915</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3303</v>
+        <v>1321.2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12794.4</v>
+        <v>31986</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_Normal.xlsx
+++ b/Instances/05_Normal.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>26618</v>
+        <v>15455</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>15.11</v>
+        <v>115.951556786605</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>18146</v>
+        <v>17902</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>14.58</v>
+        <v>89.12888671844391</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1563</v>
+        <v>1104</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>15.58282770543958</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>16132</v>
+        <v>8812</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>6.51</v>
+        <v>158.7864721820143</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1434</v>
+        <v>660</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.52</v>
+        <v>16.70558714037048</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10163</v>
+        <v>9031</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>4.56</v>
+        <v>162.3962475449928</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>20480</v>
+        <v>18127</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>14.71</v>
+        <v>11.91802229260061</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>23565</v>
+        <v>20406</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>15.43</v>
+        <v>14.08628876676777</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>20623</v>
+        <v>13090</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>11.61</v>
+        <v>18.40558429032205</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>23014</v>
+        <v>13456</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>11.39</v>
+        <v>9.869004701953788</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>32262</v>
+        <v>15165</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>11.28</v>
+        <v>12.77796679172366</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>25070</v>
+        <v>19789</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>10.85</v>
+        <v>16.83987704841808</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1541</v>
+        <v>1090</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.53</v>
+        <v>0.5544614213772028</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>17720</v>
+        <v>7550</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>8.68</v>
+        <v>96.83684850031607</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>16048</v>
+        <v>11932</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>6.52</v>
+        <v>8.471907233486126</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>27878</v>
+        <v>13131</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>12.73</v>
+        <v>11.30519545363861</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1224</v>
+        <v>848</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.63</v>
+        <v>0.8989100845082171</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>9050</v>
+        <v>10125</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>5.71</v>
+        <v>106.1831450075031</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>8224</v>
+        <v>5703</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>4.26</v>
+        <v>4.597899752721435</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>583</v>
+        <v>386</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.28</v>
+        <v>8.498550150016081</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>930</v>
+        <v>414</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.45</v>
+        <v>9.268106365187066</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5146</v>
+        <v>3093</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>2.92</v>
+        <v>97.71919206792734</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>7262</v>
+        <v>6709</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>4.19</v>
+        <v>120.6281410734938</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>739</v>
+        <v>386</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.33</v>
+        <v>10.46633225966287</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>10.90585544171928</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3958</v>
+        <v>3878</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>2.36</v>
+        <v>64.53953368262901</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>6899</v>
+        <v>3041</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>3.18</v>
+        <v>106.9657191797188</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>88403.40000000001</v>
+        <v>117871.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>58935.6</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30193.2</v>
+        <v>15096.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11424.6</v>
+        <v>22849.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>58935.6</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117871.2</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117871.2</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1503</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82998</v>
+        <v>49798.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30193.2</v>
+        <v>75483</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>64341</v>
+        <v>25736.4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11424.6</v>
+        <v>45698.4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3177</v>
+        <v>635.4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>867.6</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6750</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16693.2</v>
+        <v>33386.4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3132</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1321.2</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15082.2</v>
+        <v>5027.400000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>31986</v>
+        <v>6397.2</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_Normal.xlsx
+++ b/Instances/05_Normal.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15455</v>
+        <v>22445</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>115.951556786605</v>
+        <v>7.994550072406576</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>17902</v>
+        <v>24081</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>89.12888671844391</v>
+        <v>5.220669554565316</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1104</v>
+        <v>633</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>15.58282770543958</v>
+        <v>1.272531237360887</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>8812</v>
+        <v>6329</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>158.7864721820143</v>
+        <v>11.47124843737319</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>660</v>
+        <v>748</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>16.70558714037048</v>
+        <v>1.365108934541978</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9031</v>
+        <v>6258</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>162.3962475449928</v>
+        <v>9.720281536388189</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>18127</v>
+        <v>23214</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>11.91802229260061</v>
+        <v>0.6309302039135476</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>20406</v>
+        <v>17554</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>14.08628876676777</v>
+        <v>1.040365364342811</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13090</v>
+        <v>17710</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>18.40558429032205</v>
+        <v>0.8428062756291926</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>13456</v>
+        <v>17219</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>9.869004701953788</v>
+        <v>0.8174903750405614</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>15165</v>
+        <v>22172</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>12.77796679172366</v>
+        <v>0.7577579465025798</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>19789</v>
+        <v>14861</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>16.83987704841808</v>
+        <v>1.053303127221668</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1090</v>
+        <v>972</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5544614213772028</v>
+        <v>0.04828790972039253</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>7550</v>
+        <v>10218</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>96.83684850031607</v>
+        <v>6.270515991522557</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>11932</v>
+        <v>7734</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>8.471907233486126</v>
+        <v>0.5226160728944222</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>13131</v>
+        <v>13761</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>11.30519545363861</v>
+        <v>0.5794830320691289</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>848</v>
+        <v>686</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8989100845082171</v>
+        <v>0.05301804580282317</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>10125</v>
+        <v>5654</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>106.1831450075031</v>
+        <v>7.592775870096154</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>5703</v>
+        <v>8266</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>4.597899752721435</v>
+        <v>0.3165282082319523</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>386</v>
+        <v>311</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>8.498550150016081</v>
+        <v>0.488255919479429</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>414</v>
+        <v>549</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>9.268106365187066</v>
+        <v>0.7909069194868604</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3093</v>
+        <v>4515</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>97.71919206792734</v>
+        <v>5.442188052031439</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>6709</v>
+        <v>5647</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>120.6281410734938</v>
+        <v>6.310889822533208</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>386</v>
+        <v>463</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>10.46633225966287</v>
+        <v>0.8274406503411161</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>468</v>
+        <v>306</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>10.90585544171928</v>
+        <v>0.5891992199422282</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3878</v>
+        <v>2869</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>64.53953368262901</v>
+        <v>4.664923379249202</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3041</v>
+        <v>3779</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>106.9657191797188</v>
+        <v>6.637485070769148</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>88403.40000000001</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1503</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15096.6</v>
+        <v>75483</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4330.8</v>
+        <v>5774.400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22849.2</v>
+        <v>11424.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88403.40000000001</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>117871.2</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>117871.2</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>147339</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29467.8</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7515</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>49798.8</v>
+        <v>66398.40000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2887.2</v>
+        <v>1443.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25736.4</v>
+        <v>51472.8</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>635.4</v>
+        <v>1906.2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4338</v>
+        <v>1735.2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>33386.4</v>
+        <v>16693.2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1566</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3303</v>
+        <v>1321.2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5027.400000000001</v>
+        <v>10054.8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>

--- a/Instances/05_Normal.xlsx
+++ b/Instances/05_Normal.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22445</v>
+        <v>45149</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>7.994550072406576</v>
+        <v>135.1929757574308</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>24081</v>
+        <v>45149</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>5.220669554565316</v>
+        <v>83.07467392577186</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>633</v>
+        <v>2803</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>1.272531237360887</v>
+        <v>19.85909225892566</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>6329</v>
+        <v>21454</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>11.47124843737319</v>
+        <v>210.7880054125125</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>748</v>
+        <v>2724</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>1.365108934541978</v>
+        <v>16.16990050454297</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6258</v>
+        <v>18166</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>9.720281536388189</v>
+        <v>135.3596356385704</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>23214</v>
+        <v>45149</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6309302039135476</v>
+        <v>10.12040976224117</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17554</v>
+        <v>45149</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>1.040365364342811</v>
+        <v>18.87637526179742</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>17710</v>
+        <v>45149</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8428062756291926</v>
+        <v>15.62012170750077</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>17219</v>
+        <v>45149</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8174903750405614</v>
+        <v>12.37395436050536</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22172</v>
+        <v>45149</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7577579465025798</v>
+        <v>10.95564037760958</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>14861</v>
+        <v>45149</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>1.053303127221668</v>
+        <v>13.74199227863669</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>972</v>
+        <v>2803</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04828790972039253</v>
+        <v>0.5767990990876802</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>10218</v>
+        <v>24258</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>6.270515991522557</v>
+        <v>93.74263399068194</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>7734</v>
+        <v>21454</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5226160728944222</v>
+        <v>6.342259707805882</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>13761</v>
+        <v>45149</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5794830320691289</v>
+        <v>9.405990441758062</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>686</v>
+        <v>2724</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05301804580282317</v>
+        <v>0.9036272995556769</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>5654</v>
+        <v>20890</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>7.592775870096154</v>
+        <v>90.30173338175047</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>8266</v>
+        <v>18166</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3165282082319523</v>
+        <v>3.649105962578354</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>311</v>
+        <v>1273</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.488255919479429</v>
+        <v>7.996361677289191</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>549</v>
+        <v>1529</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7909069194868604</v>
+        <v>13.27314860400758</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>4515</v>
+        <v>9737</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>5.442188052031439</v>
+        <v>75.50677191425703</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>5647</v>
+        <v>11717</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>6.310889822533208</v>
+        <v>125.100003028477</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>463</v>
+        <v>1502</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8274406503411161</v>
+        <v>10.74975703852727</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>306</v>
+        <v>1222</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5891992199422282</v>
+        <v>7.851263222657596</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2869</v>
+        <v>7558</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>4.664923379249202</v>
+        <v>66.71547685159749</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3779</v>
+        <v>10608</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>6.637485070769148</v>
+        <v>81.32874462204821</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>117871.2</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29467.8</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75483</v>
+        <v>60386.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>147339</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88403.40000000001</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>58935.6</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147339</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>88403.40000000001</v>
+        <v>147339</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6012</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66398.40000000001</v>
+        <v>82998</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>75483</v>
+        <v>45289.8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>51472.8</v>
+        <v>64341</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45698.4</v>
+        <v>57123</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1906.2</v>
+        <v>635.4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27000</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1321.2</v>
+        <v>2642.4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10054.8</v>
+        <v>25137</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6397.2</v>
+        <v>19191.6</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_Normal.xlsx
+++ b/Instances/05_Normal.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>45149</v>
+        <v>29192</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>135.1929757574308</v>
+        <v>57.94449624945507</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>45149</v>
+        <v>29192</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>83.07467392577186</v>
+        <v>40.97363074285155</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2803</v>
+        <v>1711</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.85909225892566</v>
+        <v>11.02428385287798</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>21454</v>
+        <v>14209</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>210.7880054125125</v>
+        <v>100.1139982474068</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2724</v>
+        <v>1658</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>16.16990050454297</v>
+        <v>8.315227013987663</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18166</v>
+        <v>11612</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>135.3596356385704</v>
+        <v>73.37765082780139</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>45149</v>
+        <v>29192</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>10.12040976224117</v>
+        <v>5.913372356258559</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>45149</v>
+        <v>29192</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>18.87637526179742</v>
+        <v>7.980056328227919</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>45149</v>
+        <v>29192</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>15.62012170750077</v>
+        <v>8.048779546109607</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>45149</v>
+        <v>29192</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>12.37395436050536</v>
+        <v>5.046216627150293</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>45149</v>
+        <v>29192</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>10.95564037760958</v>
+        <v>4.349917526736673</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>45149</v>
+        <v>29192</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>13.74199227863669</v>
+        <v>7.507998648588173</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2803</v>
+        <v>1711</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5767990990876802</v>
+        <v>0.3467807157160051</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>24258</v>
+        <v>15920</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>93.74263399068194</v>
+        <v>54.73336979490151</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>21454</v>
+        <v>14209</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>6.342259707805882</v>
+        <v>3.972498901312913</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45149</v>
+        <v>29192</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>9.405990441758062</v>
+        <v>4.476842442643719</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2724</v>
+        <v>1658</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9036272995556769</v>
+        <v>0.3645511644621075</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>20890</v>
+        <v>13271</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>90.30173338175047</v>
+        <v>51.04592691520058</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>18166</v>
+        <v>11612</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>3.649105962578354</v>
+        <v>2.071528326288874</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1273</v>
+        <v>763</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>7.996361677289191</v>
+        <v>3.726013521134481</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1529</v>
+        <v>948</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>13.27314860400758</v>
+        <v>5.179290158975991</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>9737</v>
+        <v>6417</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>75.50677191425703</v>
+        <v>47.31353737247071</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>11717</v>
+        <v>7791</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>125.100003028477</v>
+        <v>48.08255578769572</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1502</v>
+        <v>910</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>10.74975703852727</v>
+        <v>6.164660212412084</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1222</v>
+        <v>748</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>7.851263222657596</v>
+        <v>5.208146384774094</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>7558</v>
+        <v>4916</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>66.71547685159749</v>
+        <v>41.3961872675189</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>10608</v>
+        <v>6696</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>81.32874462204821</v>
+        <v>48.76566928120781</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>58935.6</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60386.4</v>
+        <v>45289.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5774.400000000001</v>
+        <v>4330.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11424.6</v>
+        <v>34273.8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58935.6</v>
+        <v>88403.40000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>147339</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147339</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>58935.6</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147339</v>
+        <v>29467.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7515</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82998</v>
+        <v>16599.6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>88403.40000000001</v>
+        <v>58935.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1443.6</v>
+        <v>4330.8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>64341</v>
+        <v>38604.6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>57123</v>
+        <v>34273.8</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>635.4</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6750</v>
+        <v>33750</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16693.2</v>
+        <v>33386.4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3132</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25137</v>
+        <v>5027.400000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>

--- a/Instances/05_Normal.xlsx
+++ b/Instances/05_Normal.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>57.94449624945507</v>
+        <v>69.61767749999999</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>40.97363074285155</v>
+        <v>51.421311</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1711</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>11.02428385287798</v>
+        <v>10.543545</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>14209</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>100.1139982474068</v>
+        <v>104.7326625</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1658</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>8.315227013987663</v>
+        <v>11.227599</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11612</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>73.37765082780139</v>
+        <v>91.39680000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>5.913372356258559</v>
+        <v>5.893560000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>7.980056328227919</v>
+        <v>9.135017999999999</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>8.048779546109607</v>
+        <v>8.840339999999999</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>5.046216627150293</v>
+        <v>6.261907500000001</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>4.349917526736673</v>
+        <v>6.114568499999999</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>7.507998648588173</v>
+        <v>8.7666705</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1711</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3467807157160051</v>
+        <v>0.3870225</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>15920</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>54.73336979490151</v>
+        <v>58.14009900000001</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>14209</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>3.972498901312913</v>
+        <v>4.0383405</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>29192</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>4.476842442643719</v>
+        <v>6.114568499999999</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1658</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3645511644621075</v>
+        <v>0.458343</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>13271</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>51.04592691520058</v>
+        <v>57.8103885</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>11612</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>2.071528326288874</v>
+        <v>2.513412</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>763</v>
+        <v>2580</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>3.726013521134481</v>
+        <v>4.6463625</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>948</v>
+        <v>3177</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>5.179290158975991</v>
+        <v>6.400718999999999</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>6417</v>
+        <v>21144</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>47.31353737247071</v>
+        <v>49.49437499999999</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>7791</v>
+        <v>25613</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>48.08255578769572</v>
+        <v>62.9124975</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>910</v>
+        <v>3068</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>6.164660212412084</v>
+        <v>6.371662500000001</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>748</v>
+        <v>2514</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>5.208146384774094</v>
+        <v>5.344254</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>4916</v>
+        <v>16254</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>41.3961872675189</v>
+        <v>42.21759150000001</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>6696</v>
+        <v>22320</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>48.76566928120781</v>
+        <v>54.34421399999999</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>88403.40000000001</v>
+        <v>327420</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>88403.40000000001</v>
+        <v>818550</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3006</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45289.8</v>
+        <v>83870</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4330.8</v>
+        <v>40100</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34273.8</v>
+        <v>253880</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88403.40000000001</v>
+        <v>327420</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>58935.6</v>
+        <v>654840</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29467.8</v>
+        <v>491130</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88403.40000000001</v>
+        <v>818550</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29467.8</v>
+        <v>163710</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29467.8</v>
+        <v>491130</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1503</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16599.6</v>
+        <v>461100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45289.8</v>
+        <v>83870</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>58935.6</v>
+        <v>654840</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4330.8</v>
+        <v>24060</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>38604.6</v>
+        <v>142980</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>34273.8</v>
+        <v>190410</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3177</v>
+        <v>17650</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1735.2</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33750</v>
+        <v>112500</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>33386.4</v>
+        <v>185480</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1566</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2642.4</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5027.400000000001</v>
+        <v>111720</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19191.6</v>
+        <v>35540</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_Normal.xlsx
+++ b/Instances/05_Normal.xlsx
@@ -3052,7 +3052,7 @@
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>69.61767749999999</v>
+        <v>37.129428</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58515</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>51.421311</v>
+        <v>27.4246992</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>10.543545</v>
+        <v>5.623224</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>104.7326625</v>
+        <v>55.85742</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>11.227599</v>
+        <v>5.988052799999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3197,7 +3197,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>91.39680000000001</v>
+        <v>48.74496000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3226,7 +3226,7 @@
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>5.893560000000001</v>
+        <v>3.143232000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3255,7 +3255,7 @@
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>9.135017999999999</v>
+        <v>4.8720096</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3284,7 +3284,7 @@
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>8.840339999999999</v>
+        <v>4.714848</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3313,7 +3313,7 @@
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>6.261907500000001</v>
+        <v>3.339684000000001</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3342,7 +3342,7 @@
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>6.114568499999999</v>
+        <v>3.2611032</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3371,7 +3371,7 @@
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>8.7666705</v>
+        <v>4.6755576</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3400,7 +3400,7 @@
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3870225</v>
+        <v>0.206412</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3429,7 +3429,7 @@
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>58.14009900000001</v>
+        <v>31.0080528</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3458,7 +3458,7 @@
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>4.0383405</v>
+        <v>2.1537816</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3487,7 +3487,7 @@
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>6.114568499999999</v>
+        <v>3.2611032</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3516,7 +3516,7 @@
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.458343</v>
+        <v>0.2444496</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3545,7 +3545,7 @@
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>57.8103885</v>
+        <v>30.8322072</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3574,7 +3574,7 @@
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>2.513412</v>
+        <v>1.3404864</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2580</v>
+        <v>1359</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>4.6463625</v>
+        <v>2.47806</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>3177</v>
+        <v>1788</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>6.400718999999999</v>
+        <v>3.4137168</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>21144</v>
+        <v>13206</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>49.49437499999999</v>
+        <v>26.397</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>25613</v>
+        <v>16224</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>62.9124975</v>
+        <v>33.553332</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>3068</v>
+        <v>1653</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>6.371662500000001</v>
+        <v>3.398220000000001</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2514</v>
+        <v>1380</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>5.344254</v>
+        <v>2.8502688</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>16254</v>
+        <v>9935</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>42.21759150000001</v>
+        <v>22.51604880000001</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>22320</v>
+        <v>12966</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>54.34421399999999</v>
+        <v>28.9835808</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>327420</v>
+        <v>491130</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>818550</v>
+        <v>491130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16700</v>
+        <v>25050</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83870</v>
+        <v>335480</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>253880</v>
+        <v>190410</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>327420</v>
+        <v>163710</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654840</v>
+        <v>163710</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491130</v>
+        <v>654840</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818550</v>
+        <v>491130</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>163710</v>
+        <v>818550</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8350</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83870</v>
+        <v>419350</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>654840</v>
+        <v>818550</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24060</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>142980</v>
+        <v>214470</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>190410</v>
+        <v>317350</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17650</v>
+        <v>10590</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4820</v>
+        <v>9640</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>112500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>185480</v>
+        <v>92740</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3670</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>111720</v>
+        <v>55860</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>35540</v>
+        <v>177700</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
